--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309998</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>85.72024486005427</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,49 +1060,49 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>80.47961400380896</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>41.7314554634327</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -1424,10 +1424,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,70 +1610,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,58 +1853,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,67 +2084,67 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.583694061602047</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>167.5873293802472</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2236,55 +2236,55 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,70 +2315,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.11092414077382</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,46 +2482,46 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,26 +2552,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="H26" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>70.64856914772007</v>
       </c>
       <c r="T27" t="n">
-        <v>189.725925203634</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,64 +2801,64 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>56.17030901074568</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.6152911330824</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2959,61 +2959,61 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3041,61 +3041,61 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>22.51811698686332</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,46 +3193,46 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,67 +3272,67 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="36">
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.79900896488251</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,10 +3405,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>176.2637201985544</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3436,19 +3436,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3503,28 +3503,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>141.3598116963804</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.706013313191429</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>36.40754942051845</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>36.81406643968054</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W2" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X2" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>877.4710495913895</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>703.0180203102625</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>554.0836106490112</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>498.6361606388412</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>263.4840524070985</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4504,13 +4504,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,13 +4656,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4750,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>304.9965798960495</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>304.9965798960495</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>304.9965798960495</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>304.9965798960495</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>304.9965798960495</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4887,19 +4887,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4920,13 +4920,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>512.7568786610034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>304.9965798960495</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5215,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5309,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5543,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5698,22 +5698,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>787.171420448546</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>955.386757468614</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>955.386757468614</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>955.386757468614</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>955.386757468614</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V21" t="n">
-        <v>955.386757468614</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W21" t="n">
-        <v>955.386757468614</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X21" t="n">
-        <v>955.386757468614</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y21" t="n">
-        <v>955.386757468614</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6075,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>950.8137977926829</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>950.8137977926829</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>950.8137977926829</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>722.5901795290719</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>722.5901795290719</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>479.1414028849718</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>479.1414028849718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D26" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F26" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="G26" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="C26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="D26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="E26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6263,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="T27" t="n">
-        <v>772.4148068200968</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U27" t="n">
-        <v>544.1911885564859</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V27" t="n">
-        <v>544.1911885564859</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W27" t="n">
-        <v>544.1911885564859</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>544.1911885564859</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6361,10 +6361,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
         <v>829.5248650203655</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.77296163243852</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>264.694080783236</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>264.694080783236</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>125.9632553658515</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.77296163243852</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>181.5116738943863</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>42.7808484770018</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.2071172886402</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6880,28 +6880,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -7017,43 +7017,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7084,16 +7084,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>485.4562706347935</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C39" t="n">
-        <v>311.0032413536665</v>
+        <v>273.858482543704</v>
       </c>
       <c r="D39" t="n">
-        <v>162.0688316924152</v>
+        <v>273.858482543704</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>273.858482543704</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>273.858482543704</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1276571263195</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>21.75852153389887</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7260,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X39" t="n">
-        <v>485.4562706347935</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y39" t="n">
-        <v>485.4562706347935</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7448,13 +7448,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
         <v>20.03527576299844</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>683.8330764215681</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>476.0727776566142</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V44" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W44" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X44" t="n">
-        <v>223.6192102101089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>546.1553495854092</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>546.1553495854092</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
         <v>712.019119383956</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7828,16 +7828,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9021,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,10 +11154,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.044882499874</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>80.81293878981307</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,19 +22674,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>137.0224969565572</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22790,13 +22790,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,25 +22826,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22948,7 +22948,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22990,7 +22990,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23100,19 +23100,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>56.86390315940167</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23273,10 +23273,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,19 +23385,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,13 +23498,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23549,19 +23549,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,16 +23783,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23826,13 +23826,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,10 +23987,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>18.67467251196047</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>249.5361568348004</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>91.57414009104109</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>58.35405270072761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24260,13 +24260,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24297,10 +24297,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>87.04691001186931</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="T27" t="n">
-        <v>10.43880349118763</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>116.5381899775701</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>6.620153103414054</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,16 +24813,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24929,16 +24929,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>75.52646921322412</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,22 +25002,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>89.71732724963314</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25160,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>70.35882518776062</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25293,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>75.43126296236522</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25324,19 +25324,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25391,28 +25391,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>16.28526875902051</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69061953822364</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25591,13 +25591,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,7 +25637,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>167.4364142495718</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>169.365435782959</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>309.459871647713</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25922,16 +25922,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,28 +25944,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>120.8310140157204</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26080,7 +26080,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26314,43 @@
         <v>99696.4035187994</v>
       </c>
       <c r="C2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="G2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="F2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="L2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="M2" t="n">
         <v>99696.40351879933</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="L2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879931</v>
-      </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879936</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421396</v>
+        <v>-29533.82927421397</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733373</v>
+        <v>51235.60225733372</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733378</v>
+        <v>51235.60225733377</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="H6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="I6" t="n">
+        <v>84863.20225733373</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21803.25965822749</v>
+      </c>
+      <c r="K6" t="n">
+        <v>84863.2022573337</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84863.20225733376</v>
+      </c>
+      <c r="M6" t="n">
         <v>84863.20225733369</v>
       </c>
-      <c r="J6" t="n">
-        <v>21803.25965822752</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>84863.20225733372</v>
       </c>
-      <c r="L6" t="n">
-        <v>84863.2022573337</v>
-      </c>
-      <c r="M6" t="n">
-        <v>84863.20225733372</v>
-      </c>
-      <c r="N6" t="n">
-        <v>84863.20225733367</v>
-      </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="P6" t="n">
         <v>84863.20225733372</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35741,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35972,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,10 +37874,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192722</v>
+        <v>509551.7353335388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.34400780127524</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,13 +755,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>212.2853856434421</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>41.7314554634327</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -1424,7 +1426,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -1506,10 +1508,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1740,13 +1742,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1886,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1904,7 +1906,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U20" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>143.8263020281278</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,10 +2213,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>167.5873293802472</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>164.8304714084692</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2561,64 +2563,64 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>70.64856914772007</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>137.3351121440666</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.6152911330824</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>71.27563719245525</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>89.70401384132532</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,13 +3125,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>22.51811698686332</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>113.3209940643362</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>176.2637201985544</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.706013313191429</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X41" t="n">
         <v>241.0142888776591</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>36.40754942051845</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3901,58 +3903,58 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3983,22 +3985,22 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4056,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>36.81406643968054</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>333.7844730889342</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>333.7844730889342</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>333.7844730889342</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.33569644483418</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>877.4710495913895</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>703.0180203102625</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>554.0836106490112</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>394.8461556435558</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>248.3115976704407</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4504,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4544,16 +4546,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>726.1056462496665</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>497.8820279860555</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>262.7299197543128</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
         <v>817.1412885554689</v>
@@ -4887,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>911.8125548258105</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>700.6811714053606</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>125.0774898247174</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="13">
@@ -5215,10 +5217,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
         <v>19.28114311021272</v>
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5311,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5358,13 +5360,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5379,19 +5381,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
         <v>19.28114311021272</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5515,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5534,22 +5536,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
         <v>19.28114311021272</v>
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
         <v>223.7040404982626</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>231.8830517671884</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.0035561858384</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0035561858384</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D21" t="n">
-        <v>318.0035561858384</v>
+        <v>164.5602360679176</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5859,22 +5861,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>318.0035561858384</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>318.0035561858384</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>318.0035561858384</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>318.0035561858384</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.0035561858384</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5932,13 +5934,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
         <v>829.5248650203655</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6171,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
         <v>829.5248650203655</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>892.6949644523331</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>690.5083698110992</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>462.2847515474883</v>
+        <v>825.334820011579</v>
       </c>
       <c r="V27" t="n">
-        <v>227.1326433157456</v>
+        <v>590.1827117798364</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W29" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X29" t="n">
-        <v>223.6192102101089</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.0815197256143</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>413.6284904444873</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>125.9632553658515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>892.061562386944</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="31">
@@ -6652,13 +6654,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6739,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C33" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D33" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E33" t="n">
-        <v>328.0462318675013</v>
+        <v>394.8461556435558</v>
       </c>
       <c r="F33" t="n">
-        <v>181.5116738943863</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G33" t="n">
-        <v>42.7808484770018</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="34">
@@ -6880,25 +6882,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
         <v>829.5248650203655</v>
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3253049269343</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7132,13 +7134,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>273.858482543704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>273.858482543704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>273.858482543704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>273.858482543704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>273.858482543704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>135.1276571263195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>21.75852153389887</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7259,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X39" t="n">
-        <v>481.618781308658</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>273.858482543704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7315,13 +7317,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>307.8574406365461</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7496,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7524,16 +7526,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X42" t="n">
-        <v>683.8330764215681</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y42" t="n">
-        <v>476.0727776566142</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>591.4512093066566</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y44" t="n">
-        <v>591.4512093066566</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>546.1553495854092</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>546.1553495854092</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7734,16 +7736,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7828,28 +7830,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8304,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10907,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.3898338622054</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22598,19 +22600,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.81293878981307</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22641,13 +22643,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22866,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22990,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23081,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23100,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23276,10 +23278,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.137662477717</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23394,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23549,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23628,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23774,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23792,7 +23794,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>197.7981193194529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23978,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,19 +24022,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U20" t="n">
-        <v>249.5361568348004</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>13.81877842727314</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>58.35405270072761</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>67.97011574095609</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24409,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24570,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>101.0346019561178</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>88.60626993690821</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24771,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>6.620153103414054</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>28.88219696018788</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>67.94106661407562</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,13 +25013,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>89.71732724963314</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25235,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>59.38750492397952</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>75.43126296236522</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>87.69061953822364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>100.9443125299447</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X41" t="n">
         <v>128.71681180081</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>169.365435782959</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25871,22 +25873,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>309.459871647713</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>259.1400950999471</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25944,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>120.8310140157204</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="F2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879934</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879933</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421397</v>
+        <v>-29533.82927421398</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733372</v>
+        <v>51235.60225733373</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733377</v>
+        <v>51235.60225733378</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="F6" t="n">
         <v>84863.20225733372</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="H6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822749</v>
+        <v>21803.25965822752</v>
       </c>
       <c r="K6" t="n">
         <v>84863.2022573337</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733369</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733377</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733373</v>
       </c>
     </row>
   </sheetData>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35024,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38026,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335388</v>
+        <v>407299.4256466023</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006065</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,73 +898,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>69.03881051849277</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,49 +1074,49 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>88.46061606973225</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,28 +1372,28 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>154.8359655669563</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1499,22 +1499,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>241.0142888776591</v>
@@ -1615,13 +1615,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>138.8401591510642</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>89.66547645067541</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>109.364731275353</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>190.3453970742849</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>143.8263020281278</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>164.8304714084692</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>137.3351121440666</v>
+        <v>190.9179425772189</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,55 +2712,55 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>71.27563719245525</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>89.70401384132532</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>21.6333565193116</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,28 +3268,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>113.3209940643362</v>
+        <v>51.3162985621293</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>69.90197782146215</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>124.9970695510301</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>134.6675686894588</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>110.1497834296626</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>29.79900896488246</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,67 +4137,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.32787816303323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,28 +4506,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4702815141908</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C6" t="n">
-        <v>689.4702815141908</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,40 +4658,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>109.3894334091926</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="10">
@@ -4980,25 +4980,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5129,16 +5129,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>259.0600686093459</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W12" t="n">
-        <v>259.0600686093459</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X12" t="n">
-        <v>259.0600686093459</v>
+        <v>176.4352409821462</v>
       </c>
       <c r="Y12" t="n">
-        <v>259.0600686093459</v>
+        <v>176.4352409821462</v>
       </c>
     </row>
     <row r="13">
@@ -5217,25 +5217,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>250.5774899069169</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
     </row>
     <row r="16">
@@ -5454,25 +5454,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E18" t="n">
         <v>508.9694238887622</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>164.5602360679176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>193.7341723913397</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>193.7341723913397</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>178.5185981156682</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C27" t="n">
-        <v>178.5185981156682</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D27" t="n">
-        <v>178.5185981156682</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>825.334820011579</v>
+        <v>771.2107488669808</v>
       </c>
       <c r="V27" t="n">
-        <v>590.1827117798364</v>
+        <v>536.058640635238</v>
       </c>
       <c r="W27" t="n">
-        <v>346.7339351357363</v>
+        <v>536.058640635238</v>
       </c>
       <c r="X27" t="n">
-        <v>346.7339351357363</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="Y27" t="n">
-        <v>346.7339351357363</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="28">
@@ -6408,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>718.7806050553886</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>892.061562386944</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="S30" t="n">
-        <v>718.6442178376129</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T30" t="n">
-        <v>718.6442178376129</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U30" t="n">
-        <v>718.6442178376129</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V30" t="n">
-        <v>718.6442178376129</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W30" t="n">
-        <v>718.6442178376129</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6654,7 +6654,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C33" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D33" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E33" t="n">
-        <v>394.8461556435558</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F33" t="n">
-        <v>248.3115976704407</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X33" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y33" t="n">
-        <v>485.4562706347935</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.4532163200711</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C36" t="n">
-        <v>473.9875657500345</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D36" t="n">
-        <v>325.0531560887832</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>588.4532163200711</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>588.4532163200711</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y36" t="n">
-        <v>588.4532163200711</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7207,19 +7207,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>462.1935501069094</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>227.0414418751666</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0414418751666</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7423,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W41" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X41" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424089</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999107</v>
       </c>
       <c r="V42" t="n">
-        <v>852.7947480059265</v>
+        <v>399.511899568168</v>
       </c>
       <c r="W42" t="n">
-        <v>609.3459713618265</v>
+        <v>156.063122924068</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>156.063122924068</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>156.063122924068</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.4273118130612</v>
+        <v>477.159602222436</v>
       </c>
       <c r="C44" t="n">
-        <v>100.4273118130612</v>
+        <v>233.710825578336</v>
       </c>
       <c r="D44" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U44" t="n">
-        <v>343.8760884571613</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V44" t="n">
-        <v>100.4273118130612</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W44" t="n">
-        <v>100.4273118130612</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X44" t="n">
-        <v>100.4273118130612</v>
+        <v>477.159602222436</v>
       </c>
       <c r="Y44" t="n">
-        <v>100.4273118130612</v>
+        <v>477.159602222436</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564955</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
         <v>19.28114311021272</v>
@@ -7845,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9023,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10196,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>292.2667739183906</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,16 +22786,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>395.6829895855319</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>68.30470664471787</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22962,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,19 +23026,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>311.5863622709866</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>69.18446438566869</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,28 +23260,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>11.69721808291101</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>124.2586028933485</v>
@@ -23503,13 +23503,13 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>18.80492130433672</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23594,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>355.153891063734</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>38.08033428928577</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23873,7 +23873,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23910,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23977,16 +23977,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>32.75045248984648</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>13.81877842727314</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24262,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>67.97011574095609</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>88.60626993690821</v>
+        <v>35.02343950375595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>116.0654025766999</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>28.88219696018788</v>
+        <v>65.49716000536247</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24894,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>324.9137997770587</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25004,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>67.94106661407562</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>123.4358558740723</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,28 +25156,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>294.3754004698055</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>59.38750492397952</v>
+        <v>121.3922004261864</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25295,7 +25295,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686752</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25447,19 +25447,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>102.8065211668536</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25554,10 +25554,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>31.86561496040852</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>122.6508037197627</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1400950999471</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,25 +25912,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997563</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
         <v>99696.40351879942</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="G2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879943</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="I2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421398</v>
+        <v>-41751.83989425446</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733373</v>
+        <v>39017.5916372933</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733378</v>
+        <v>39017.59163729331</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729323</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733372</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733376</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822752</v>
+        <v>9585.249038187101</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729332</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.1916372933</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9067907798016</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466023</v>
+        <v>499301.2742297005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>88.46061606973225</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>169.9088723636406</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,67 +1372,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.8359655669563</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>111.0299893707267</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,67 +1609,67 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>138.8401591510642</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1748,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>51.72215467797748</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>109.364731275353</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>32.9747718031586</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1943,10 +1943,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -2225,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>29.88929839105575</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>134.667568689459</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>190.9179425772189</v>
+        <v>84.14750936819266</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2839,16 +2839,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>220.2131257424249</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2879,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>79.43554583325367</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3085,7 +3085,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3113,25 +3113,25 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>21.6333565193116</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>80.1971291116721</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>51.3162985621293</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,46 +3432,46 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>69.90197782146215</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>123.3365499318636</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,64 +3666,64 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>134.6675686894588</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>29.14270706479791</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>29.79900896488246</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
     </row>
     <row r="46">
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4439,16 +4439,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4527,7 +4527,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.58726043968704</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>109.3894334091926</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X9" t="n">
-        <v>277.6047704292607</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y9" t="n">
-        <v>277.6047704292607</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4992,13 +4992,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
         <v>20.03527576299844</v>
@@ -5123,16 +5123,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
         <v>894.6625969973069</v>
@@ -5162,10 +5162,10 @@
         <v>384.2867411876791</v>
       </c>
       <c r="X12" t="n">
-        <v>176.4352409821462</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.4352409821462</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="13">
@@ -5223,19 +5223,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.5118995681682</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C15" t="n">
-        <v>399.5118995681682</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D15" t="n">
-        <v>250.5774899069169</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E15" t="n">
-        <v>110.334904905842</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F15" t="n">
-        <v>110.334904905842</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H15" t="n">
         <v>110.334904905842</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5396,13 +5396,13 @@
         <v>399.5118995681682</v>
       </c>
       <c r="W15" t="n">
-        <v>399.5118995681682</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X15" t="n">
-        <v>399.5118995681682</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y15" t="n">
-        <v>399.5118995681682</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5475,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C17" t="n">
-        <v>527.5764290961142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D17" t="n">
-        <v>527.5764290961142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E17" t="n">
-        <v>527.5764290961142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>619.4388494194218</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="C18" t="n">
-        <v>619.4388494194218</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>451.2235123993538</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5664,10 +5664,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W20" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X20" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5873,7 +5873,7 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6110,10 +6110,10 @@
         <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>771.2107488669808</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V27" t="n">
-        <v>536.058640635238</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>536.058640635238</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>328.2071404297052</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6408,13 +6408,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>929.0463735436861</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>726.8597789024521</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>498.6361606388412</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>263.4840524070985</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="31">
@@ -6657,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C33" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D33" t="n">
-        <v>384.2867411876791</v>
+        <v>398.2566246559538</v>
       </c>
       <c r="E33" t="n">
-        <v>384.2867411876791</v>
+        <v>239.0191696504983</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>239.0191696504983</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>100.2883442331138</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>100.2883442331138</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y33" t="n">
-        <v>384.2867411876791</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="34">
@@ -6888,22 +6888,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>366.1018663125844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>366.1018663125844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>567.60420440717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7028,10 +7028,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7049,19 +7049,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.64333416851576</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X39" t="n">
-        <v>90.64333416851576</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.64333416851576</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>953.9655401424089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>710.5167634983089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>467.0679868542089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7423,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424089</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424089</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>953.9655401424089</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252816</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217535</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.057155510636</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999107</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>399.511899568168</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>156.063122924068</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>156.063122924068</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>156.063122924068</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7593,25 +7593,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.159602222436</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C44" t="n">
-        <v>233.710825578336</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.057155510636</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>964.057155510636</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>964.057155510636</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V44" t="n">
-        <v>964.057155510636</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W44" t="n">
-        <v>720.608378866536</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X44" t="n">
-        <v>477.159602222436</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.159602222436</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>49.38115216564955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.8095319084027</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.8095319084027</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.057155510636</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470251</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152824</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711824</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564955</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564955</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.0408247018198</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>214.9666412263055</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22679,7 +22679,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,16 +22786,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>395.6829895855319</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>68.30470664471787</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22928,7 +22928,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>311.5863622709866</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>69.18446438566869</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>35.77382341366379</v>
       </c>
     </row>
     <row r="10">
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,22 +23305,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.69721808291101</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23348,13 +23348,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>34.03922302265721</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23402,7 +23402,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,22 +23542,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>236.9120424101793</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>18.80492130433672</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>355.153891063734</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>38.08033428928577</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>124.6703086522423</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23831,10 +23831,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>324.9137997770587</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>175.8836868124217</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>71.10541651401849</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24384,7 +24384,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,10 +24527,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>35.02343950375595</v>
+        <v>141.7938727127822</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>31.13252716541155</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24767,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>78.20953462214727</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>65.49716000536247</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24897,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>324.9137997770587</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -25001,25 +25001,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>123.4358558740723</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.19950373974298</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,7 +25055,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>294.3754004698055</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>121.3922004261864</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686752</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25441,16 +25441,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>102.8065211668536</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25487,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>76.82817876295805</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>224.9573404408503</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.86561496040852</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>176.6302781386796</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>117.6460565997563</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>150.1070334262686</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="C2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="C2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="D2" t="n">
-        <v>99696.40351879942</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="F2" t="n">
-        <v>99696.40351879934</v>
-      </c>
       <c r="G2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879943</v>
-      </c>
       <c r="K2" t="n">
-        <v>99696.40351879943</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="P2" t="n">
         <v>99696.40351879939</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425446</v>
+        <v>-30755.63033621806</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.5916372933</v>
+        <v>50013.80119532967</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729331</v>
+        <v>50013.8011953297</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729323</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187101</v>
+        <v>20581.45859622345</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729332</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.1916372933</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
     </row>
   </sheetData>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,7 +35026,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35971,10 +35971,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798015</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
